--- a/Data_preparation/datasets/final_data/BLACKBERRY_LTD.xlsx
+++ b/Data_preparation/datasets/final_data/BLACKBERRY_LTD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,99 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>TDC</t>
-  </si>
-  <si>
-    <t>QUBT</t>
-  </si>
-  <si>
-    <t>CGNX</t>
-  </si>
-  <si>
-    <t>CRM</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>ACN</t>
-  </si>
-  <si>
-    <t>HUBS</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>BABA</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>WDAY</t>
-  </si>
-  <si>
-    <t>TRI</t>
-  </si>
-  <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>LPSN</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>NICE</t>
-  </si>
-  <si>
-    <t>NVDA</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>PLTR</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>SMCI</t>
-  </si>
-  <si>
-    <t>SNPS</t>
-  </si>
-  <si>
-    <t>IONQ</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>WIX</t>
-  </si>
-  <si>
-    <t>PTC</t>
-  </si>
-  <si>
-    <t>CRWV</t>
   </si>
 </sst>
 </file>
@@ -745,22 +652,22 @@
         <v>42063</v>
       </c>
       <c r="D2">
-        <v>44.54999923706055</v>
+        <v>10.94999980926514</v>
       </c>
       <c r="E2">
-        <v>44.13999938964844</v>
+        <v>8.930000305175781</v>
       </c>
       <c r="F2">
-        <v>45.02999877929688</v>
+        <v>11.44999980926514</v>
       </c>
       <c r="G2">
-        <v>41.65999984741211</v>
+        <v>8.590000152587891</v>
       </c>
       <c r="H2">
-        <v>94500000</v>
+        <v>590361084</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>5692026612</v>
@@ -861,22 +768,22 @@
         <v>42154</v>
       </c>
       <c r="D3">
-        <v>0.4000000059604645</v>
+        <v>9.819999694824221</v>
       </c>
       <c r="E3">
-        <v>0.6000000238418579</v>
+        <v>8.180000305175781</v>
       </c>
       <c r="F3">
-        <v>0.6000000238418579</v>
+        <v>9.939999580383301</v>
       </c>
       <c r="G3">
-        <v>0.4000000059604645</v>
+        <v>8.039999961853027</v>
       </c>
       <c r="H3">
-        <v>186750463</v>
+        <v>590361084</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>5182262756</v>
@@ -980,22 +887,22 @@
         <v>42245</v>
       </c>
       <c r="D4">
-        <v>16.08317048093321</v>
+        <v>7.460000038146973</v>
       </c>
       <c r="E4">
-        <v>15.85255432128906</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="F4">
-        <v>18.00651016728542</v>
+        <v>7.820000171661377</v>
       </c>
       <c r="G4">
-        <v>15.28062723067012</v>
+        <v>5.960000038146973</v>
       </c>
       <c r="H4">
-        <v>167899010</v>
+        <v>590361084</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>3897273113</v>
@@ -1096,22 +1003,22 @@
         <v>42336</v>
       </c>
       <c r="D5">
-        <v>79.51358336142192</v>
+        <v>7.960000038146973</v>
       </c>
       <c r="E5">
-        <v>77.58388519287109</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="F5">
-        <v>81.28495099946421</v>
+        <v>9.460000038146973</v>
       </c>
       <c r="G5">
-        <v>75.06042677248134</v>
+        <v>7.28000020980835</v>
       </c>
       <c r="H5">
-        <v>952000000</v>
+        <v>590361084</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>4135234158</v>
@@ -1212,22 +1119,22 @@
         <v>42429</v>
       </c>
       <c r="D6">
-        <v>5.75</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="E6">
-        <v>6.125999927520752</v>
+        <v>8.090000152587891</v>
       </c>
       <c r="F6">
-        <v>6.199999809265137</v>
+        <v>8.359999656677246</v>
       </c>
       <c r="G6">
-        <v>5.415999889373779</v>
+        <v>7.429999828338623</v>
       </c>
       <c r="H6">
-        <v>766266033</v>
+        <v>590361084</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>4129946135</v>
@@ -1328,22 +1235,22 @@
         <v>42521</v>
       </c>
       <c r="D7">
-        <v>102.5648902894489</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="E7">
-        <v>97.66812133789062</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="F7">
-        <v>104.1253021505613</v>
+        <v>7.489999771118164</v>
       </c>
       <c r="G7">
-        <v>93.67656753890969</v>
+        <v>6.230000019073486</v>
       </c>
       <c r="H7">
-        <v>622000000</v>
+        <v>590361084</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>3788922410</v>
@@ -1444,22 +1351,22 @@
         <v>42613</v>
       </c>
       <c r="D8">
-        <v>54.90000152587891</v>
+        <v>7.590000152587891</v>
       </c>
       <c r="E8">
-        <v>57.61999893188477</v>
+        <v>7.980000019073486</v>
       </c>
       <c r="F8">
-        <v>59.0099983215332</v>
+        <v>8.460000038146973</v>
       </c>
       <c r="G8">
-        <v>52.84000015258789</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="H8">
-        <v>52693110</v>
+        <v>590361084</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>3955697537</v>
@@ -1560,22 +1467,22 @@
         <v>42704</v>
       </c>
       <c r="D9">
-        <v>19.28171157836914</v>
+        <v>7.75</v>
       </c>
       <c r="E9">
-        <v>17.95720863342285</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="F9">
-        <v>19.84207725524902</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="G9">
-        <v>17.01477241516113</v>
+        <v>6.860000133514404</v>
       </c>
       <c r="H9">
-        <v>60308678</v>
+        <v>590361084</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>4018238209</v>
@@ -1676,22 +1583,22 @@
         <v>42794</v>
       </c>
       <c r="D10">
-        <v>98.46438093908164</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>102.4056167602539</v>
+        <v>7.75</v>
       </c>
       <c r="F10">
-        <v>104.8938131001261</v>
+        <v>8.079999923706055</v>
       </c>
       <c r="G10">
-        <v>96.96386105366986</v>
+        <v>6.650000095367432</v>
       </c>
       <c r="H10">
-        <v>2319000000</v>
+        <v>590361084</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>3627359006</v>
@@ -1792,22 +1699,22 @@
         <v>42886</v>
       </c>
       <c r="D11">
-        <v>28.77880201112676</v>
+        <v>10.65999984741211</v>
       </c>
       <c r="E11">
-        <v>28.70500946044922</v>
+        <v>9.989999771118164</v>
       </c>
       <c r="F11">
-        <v>31.9026541283522</v>
+        <v>11.73999977111816</v>
       </c>
       <c r="G11">
-        <v>27.99169022813811</v>
+        <v>9.520000457763672</v>
       </c>
       <c r="H11">
-        <v>171080665</v>
+        <v>590361084</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>5607355330</v>
@@ -1908,22 +1815,22 @@
         <v>42978</v>
       </c>
       <c r="D12">
-        <v>109.5999984741211</v>
+        <v>9.329999923706056</v>
       </c>
       <c r="E12">
-        <v>105.3899993896484</v>
+        <v>11.18000030517578</v>
       </c>
       <c r="F12">
-        <v>110.9499969482422</v>
+        <v>11.34000015258789</v>
       </c>
       <c r="G12">
-        <v>98.45999908447266</v>
+        <v>8.890000343322754</v>
       </c>
       <c r="H12">
-        <v>217000000</v>
+        <v>590361084</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>4917708979</v>
@@ -2024,22 +1931,22 @@
         <v>43069</v>
       </c>
       <c r="D13">
-        <v>38.98032959138032</v>
+        <v>10.85000038146973</v>
       </c>
       <c r="E13">
-        <v>38.25197219848633</v>
+        <v>11.17000007629394</v>
       </c>
       <c r="F13">
-        <v>39.23481738528589</v>
+        <v>12.35999965667725</v>
       </c>
       <c r="G13">
-        <v>37.77809937580747</v>
+        <v>10.13000011444092</v>
       </c>
       <c r="H13">
-        <v>450687724</v>
+        <v>590361084</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>5713454769</v>
@@ -2140,22 +2047,22 @@
         <v>43159</v>
       </c>
       <c r="D14">
-        <v>49.41999816894531</v>
+        <v>12.14999961853027</v>
       </c>
       <c r="E14">
-        <v>51.02000045776367</v>
+        <v>11.5</v>
       </c>
       <c r="F14">
-        <v>52.90000152587891</v>
+        <v>13.38000011444092</v>
       </c>
       <c r="G14">
-        <v>48.66999816894531</v>
+        <v>11.47999954223633</v>
       </c>
       <c r="H14">
-        <v>50476952</v>
+        <v>590361084</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>6440235923</v>
@@ -2256,22 +2163,22 @@
         <v>43251</v>
       </c>
       <c r="D15">
-        <v>19.5</v>
+        <v>11.9399995803833</v>
       </c>
       <c r="E15">
-        <v>21.10000038146973</v>
+        <v>9.649999618530272</v>
       </c>
       <c r="F15">
-        <v>24.07999992370605</v>
+        <v>12.55000019073486</v>
       </c>
       <c r="G15">
-        <v>19.32999992370605</v>
+        <v>9.520000457763672</v>
       </c>
       <c r="H15">
-        <v>150594095</v>
+        <v>590361084</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>6349560061</v>
@@ -2372,22 +2279,22 @@
         <v>43343</v>
       </c>
       <c r="D16">
-        <v>366.4700012207031</v>
+        <v>10.55000019073486</v>
       </c>
       <c r="E16">
-        <v>374.1300048828125</v>
+        <v>11.38000011444092</v>
       </c>
       <c r="F16">
-        <v>383.2000122070313</v>
+        <v>12</v>
       </c>
       <c r="G16">
-        <v>335.8299865722656</v>
+        <v>9.670000076293944</v>
       </c>
       <c r="H16">
-        <v>424926346</v>
+        <v>590361084</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>5726948931</v>
@@ -2491,22 +2398,22 @@
         <v>43434</v>
       </c>
       <c r="D17">
-        <v>28.30773105702722</v>
+        <v>8.970000267028809</v>
       </c>
       <c r="E17">
-        <v>24.80602836608887</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="F17">
-        <v>28.33530415410917</v>
+        <v>9</v>
       </c>
       <c r="G17">
-        <v>23.41821403381436</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="H17">
-        <v>174270076</v>
+        <v>590361084</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>4717889513</v>
@@ -2604,22 +2511,22 @@
         <v>43524</v>
       </c>
       <c r="D18">
-        <v>117.4599990844727</v>
+        <v>8.710000038146973</v>
       </c>
       <c r="E18">
-        <v>122.5100021362305</v>
+        <v>10.09000015258789</v>
       </c>
       <c r="F18">
-        <v>123.5699996948242</v>
+        <v>10.28999996185303</v>
       </c>
       <c r="G18">
-        <v>112.5999984741211</v>
+        <v>8.569999694824219</v>
       </c>
       <c r="H18">
-        <v>61741703</v>
+        <v>590361084</v>
       </c>
       <c r="I18" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>4669583477</v>
@@ -2720,22 +2627,22 @@
         <v>43616</v>
       </c>
       <c r="D19">
-        <v>27.72999954223633</v>
+        <v>7.829999923706055</v>
       </c>
       <c r="E19">
-        <v>28.04000091552734</v>
+        <v>7.460000038146973</v>
       </c>
       <c r="F19">
-        <v>29.19000053405762</v>
+        <v>9.090000152587891</v>
       </c>
       <c r="G19">
-        <v>25.8700008392334</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="H19">
-        <v>150594095</v>
+        <v>590361084</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>4296760080</v>
@@ -2836,22 +2743,22 @@
         <v>43708</v>
       </c>
       <c r="D20">
-        <v>62.14997478545119</v>
+        <v>6.789999961853027</v>
       </c>
       <c r="E20">
-        <v>60.79552841186523</v>
+        <v>5.25</v>
       </c>
       <c r="F20">
-        <v>64.79523291027149</v>
+        <v>7.760000228881836</v>
       </c>
       <c r="G20">
-        <v>59.82286973629873</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="H20">
-        <v>450687724</v>
+        <v>590361084</v>
       </c>
       <c r="I20" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>3760349268</v>
@@ -2952,22 +2859,22 @@
         <v>43799</v>
       </c>
       <c r="D21">
-        <v>5.387734816364808</v>
+        <v>5.570000171661377</v>
       </c>
       <c r="E21">
-        <v>5.856666564941406</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="F21">
-        <v>6.018701599842053</v>
+        <v>6.650000095367432</v>
       </c>
       <c r="G21">
-        <v>4.987251524861012</v>
+        <v>5.329999923706055</v>
       </c>
       <c r="H21">
-        <v>24347000000</v>
+        <v>590361084</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>3054231520</v>
@@ -3068,22 +2975,22 @@
         <v>43890</v>
       </c>
       <c r="D22">
-        <v>67.10666550667608</v>
+        <v>5.170000076293945</v>
       </c>
       <c r="E22">
-        <v>57.69954299926758</v>
+        <v>4.130000114440918</v>
       </c>
       <c r="F22">
-        <v>69.92720840862992</v>
+        <v>5.21999979019165</v>
       </c>
       <c r="G22">
-        <v>50.09797211347052</v>
+        <v>2.700000047683716</v>
       </c>
       <c r="H22">
-        <v>5817000000</v>
+        <v>590361084</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>2854522440</v>
@@ -3184,22 +3091,22 @@
         <v>43982</v>
       </c>
       <c r="D23">
-        <v>122.4000015258789</v>
+        <v>4.639999866485596</v>
       </c>
       <c r="E23">
-        <v>137.9409942626953</v>
+        <v>4.889999866485596</v>
       </c>
       <c r="F23">
-        <v>139.8000030517578</v>
+        <v>5.840000152587891</v>
       </c>
       <c r="G23">
-        <v>121.8564987182617</v>
+        <v>4.590000152587891</v>
       </c>
       <c r="H23">
-        <v>10664912097</v>
+        <v>590361084</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>2571611897</v>
@@ -3300,22 +3207,22 @@
         <v>44074</v>
       </c>
       <c r="D24">
-        <v>24.11105537414551</v>
+        <v>5.25</v>
       </c>
       <c r="E24">
-        <v>24.54406547546387</v>
+        <v>4.590000152587891</v>
       </c>
       <c r="F24">
-        <v>27.68211936950684</v>
+        <v>5.659999847412109</v>
       </c>
       <c r="G24">
-        <v>23.26540946960449</v>
+        <v>4.489999771118164</v>
       </c>
       <c r="H24">
-        <v>60308678</v>
+        <v>590361084</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>2901040583</v>
@@ -3416,22 +3323,22 @@
         <v>44165</v>
       </c>
       <c r="D25">
-        <v>117.911643493213</v>
+        <v>8.359999656677246</v>
       </c>
       <c r="E25">
-        <v>129.2925872802734</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F25">
-        <v>135.2363930244096</v>
+        <v>9.689999580383301</v>
       </c>
       <c r="G25">
-        <v>116.9372476464922</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="H25">
-        <v>14840390000</v>
+        <v>590361084</v>
       </c>
       <c r="I25" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>3266733417</v>
@@ -3532,22 +3439,22 @@
         <v>44255</v>
       </c>
       <c r="D26">
-        <v>25.19000053405762</v>
+        <v>10.28999996185303</v>
       </c>
       <c r="E26">
-        <v>23.29000091552734</v>
+        <v>8.430000305175781</v>
       </c>
       <c r="F26">
-        <v>27.46999931335449</v>
+        <v>12.52000045776367</v>
       </c>
       <c r="G26">
-        <v>20.18000030517578</v>
+        <v>8.359999656677246</v>
       </c>
       <c r="H26">
-        <v>2274261581</v>
+        <v>590361084</v>
       </c>
       <c r="I26" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>5654472625</v>
@@ -3648,22 +3555,22 @@
         <v>44347</v>
       </c>
       <c r="D27">
-        <v>56.926873789871</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="E27">
-        <v>64.96807098388672</v>
+        <v>12.22000026702881</v>
       </c>
       <c r="F27">
-        <v>65.38447790204948</v>
+        <v>20.17000007629395</v>
       </c>
       <c r="G27">
-        <v>56.19585490044523</v>
+        <v>10.52000045776367</v>
       </c>
       <c r="H27">
-        <v>457000000</v>
+        <v>590361084</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>5695016862</v>
@@ -3764,22 +3671,22 @@
         <v>44439</v>
       </c>
       <c r="D28">
-        <v>49.8386211087554</v>
+        <v>11.44999980926514</v>
       </c>
       <c r="E28">
-        <v>49.07413864135742</v>
+        <v>9.729999542236328</v>
       </c>
       <c r="F28">
-        <v>51.10968652342323</v>
+        <v>12.01000022888184</v>
       </c>
       <c r="G28">
-        <v>48.189920750097</v>
+        <v>9.239999771118164</v>
       </c>
       <c r="H28">
-        <v>4757218036</v>
+        <v>590361084</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>6462763042</v>
@@ -3880,22 +3787,22 @@
         <v>44530</v>
       </c>
       <c r="D29">
-        <v>4.199999809265137</v>
+        <v>9.689999580383301</v>
       </c>
       <c r="E29">
-        <v>4.394999980926514</v>
+        <v>9.350000381469728</v>
       </c>
       <c r="F29">
-        <v>4.640999794006348</v>
+        <v>9.689999580383301</v>
       </c>
       <c r="G29">
-        <v>3.993000030517578</v>
+        <v>8.420000076293945</v>
       </c>
       <c r="H29">
-        <v>594273308</v>
+        <v>590361084</v>
       </c>
       <c r="I29" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>5397941616</v>
@@ -3996,22 +3903,22 @@
         <v>44620</v>
       </c>
       <c r="D30">
-        <v>311.9800109863281</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="E30">
-        <v>333.2699890136719</v>
+        <v>7.460000038146973</v>
       </c>
       <c r="F30">
-        <v>342.5899963378906</v>
+        <v>7.96999979019165</v>
       </c>
       <c r="G30">
-        <v>277.1600036621094</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="H30">
-        <v>185748673</v>
+        <v>590361084</v>
       </c>
       <c r="I30" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>3941153378</v>
@@ -4112,22 +4019,22 @@
         <v>44712</v>
       </c>
       <c r="D31">
-        <v>5.739999771118164</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="E31">
-        <v>4.380000114440918</v>
+        <v>5.389999866485596</v>
       </c>
       <c r="F31">
-        <v>6.034999847412109</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="G31">
-        <v>4.215000152587891</v>
+        <v>5</v>
       </c>
       <c r="H31">
-        <v>323054568</v>
+        <v>590361084</v>
       </c>
       <c r="I31" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>3487661644</v>
@@ -4228,22 +4135,22 @@
         <v>44804</v>
       </c>
       <c r="D32">
-        <v>88.08422192716088</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="E32">
-        <v>75.96611022949219</v>
+        <v>4.699999809265137</v>
       </c>
       <c r="F32">
-        <v>90.06908123986936</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="G32">
-        <v>72.44274222187759</v>
+        <v>4.679999828338623</v>
       </c>
       <c r="H32">
-        <v>2319000000</v>
+        <v>590361084</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>3428388386</v>
@@ -4344,22 +4251,22 @@
         <v>44895</v>
       </c>
       <c r="D33">
-        <v>5.119999885559082</v>
+        <v>4.880000114440918</v>
       </c>
       <c r="E33">
-        <v>3.450000047683716</v>
+        <v>3.259999990463257</v>
       </c>
       <c r="F33">
-        <v>5.260000228881836</v>
+        <v>5.28000020980835</v>
       </c>
       <c r="G33">
-        <v>3.039999961853028</v>
+        <v>3.170000076293945</v>
       </c>
       <c r="H33">
-        <v>323054568</v>
+        <v>590361084</v>
       </c>
       <c r="I33" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>2812019266</v>
@@ -4460,22 +4367,22 @@
         <v>44985</v>
       </c>
       <c r="D34">
-        <v>9.916000366210938</v>
+        <v>3.880000114440918</v>
       </c>
       <c r="E34">
-        <v>10.65499973297119</v>
+        <v>4.559999942779541</v>
       </c>
       <c r="F34">
-        <v>11.83600044250488</v>
+        <v>4.699999809265137</v>
       </c>
       <c r="G34">
-        <v>8.725000381469727</v>
+        <v>3.430000066757202</v>
       </c>
       <c r="H34">
-        <v>594273308</v>
+        <v>590361084</v>
       </c>
       <c r="I34" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>2251744133</v>
@@ -4576,22 +4483,22 @@
         <v>45077</v>
       </c>
       <c r="D35">
-        <v>38.45917687257426</v>
+        <v>5.300000190734863</v>
       </c>
       <c r="E35">
-        <v>42.26922225952149</v>
+        <v>5.53000020980835</v>
       </c>
       <c r="F35">
-        <v>43.9559179228158</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="G35">
-        <v>37.32705530814628</v>
+        <v>4.710000038146973</v>
       </c>
       <c r="H35">
-        <v>24347000000</v>
+        <v>590361084</v>
       </c>
       <c r="I35" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>3114670945</v>
@@ -4692,22 +4599,22 @@
         <v>45169</v>
       </c>
       <c r="D36">
-        <v>246.5399932861328</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="E36">
-        <v>214.8500061035156</v>
+        <v>4.710000038146973</v>
       </c>
       <c r="F36">
-        <v>252.7200012207031</v>
+        <v>5.75</v>
       </c>
       <c r="G36">
-        <v>202.6499938964844</v>
+        <v>4.489999771118164</v>
       </c>
       <c r="H36">
-        <v>217000000</v>
+        <v>590361084</v>
       </c>
       <c r="I36" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>3242813360</v>
@@ -4808,22 +4715,22 @@
         <v>45260</v>
       </c>
       <c r="D37">
-        <v>37.65000152587891</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="E37">
-        <v>39.84999847412109</v>
+        <v>3.539999961853028</v>
       </c>
       <c r="F37">
-        <v>44.56999969482422</v>
+        <v>4.440000057220459</v>
       </c>
       <c r="G37">
-        <v>35.79000091552734</v>
+        <v>3.480000019073486</v>
       </c>
       <c r="H37">
-        <v>307636373</v>
+        <v>590361084</v>
       </c>
       <c r="I37" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>2142208745</v>
@@ -4924,22 +4831,22 @@
         <v>45351</v>
       </c>
       <c r="D38">
-        <v>140</v>
+        <v>2.789999961853028</v>
       </c>
       <c r="E38">
-        <v>137.4799957275391</v>
+        <v>2.759999990463257</v>
       </c>
       <c r="F38">
-        <v>146.2100067138672</v>
+        <v>3.180000066757202</v>
       </c>
       <c r="G38">
-        <v>133.8500061035156</v>
+        <v>2.460000038146973</v>
       </c>
       <c r="H38">
-        <v>55686229</v>
+        <v>590361084</v>
       </c>
       <c r="I38" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>1627275583</v>
@@ -5040,22 +4947,22 @@
         <v>45443</v>
       </c>
       <c r="D39">
-        <v>177</v>
+        <v>2.920000076293945</v>
       </c>
       <c r="E39">
-        <v>181.6699981689453</v>
+        <v>2.480000019073486</v>
       </c>
       <c r="F39">
-        <v>184.479995727539</v>
+        <v>2.950000047683716</v>
       </c>
       <c r="G39">
-        <v>168.1799926757812</v>
+        <v>2.200000047683716</v>
       </c>
       <c r="H39">
-        <v>119792704</v>
+        <v>590361084</v>
       </c>
       <c r="I39" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>1643961761</v>
@@ -5156,22 +5063,22 @@
         <v>45535</v>
       </c>
       <c r="D40">
-        <v>164.9700012207031</v>
+        <v>2.339999914169312</v>
       </c>
       <c r="E40">
-        <v>167.1699981689453</v>
+        <v>2.619999885559082</v>
       </c>
       <c r="F40">
-        <v>172.4499969482422</v>
+        <v>2.630000114440918</v>
       </c>
       <c r="G40">
-        <v>150.3899993896484</v>
+        <v>2.220000028610229</v>
       </c>
       <c r="H40">
-        <v>55686229</v>
+        <v>590361084</v>
       </c>
       <c r="I40" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>1386906935</v>
@@ -5272,22 +5179,22 @@
         <v>45626</v>
       </c>
       <c r="D41">
-        <v>198.6999969482422</v>
+        <v>2.579999923706055</v>
       </c>
       <c r="E41">
-        <v>183.8699951171875</v>
+        <v>3.779999971389771</v>
       </c>
       <c r="F41">
-        <v>203.0899963378907</v>
+        <v>4.059999942779541</v>
       </c>
       <c r="G41">
-        <v>181.4400024414062</v>
+        <v>2.509999990463257</v>
       </c>
       <c r="H41">
-        <v>119792704</v>
+        <v>590361084</v>
       </c>
       <c r="I41" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>1518170950</v>
@@ -5388,22 +5295,22 @@
         <v>45716</v>
       </c>
       <c r="D42">
-        <v>39</v>
+        <v>4.769999980926514</v>
       </c>
       <c r="E42">
-        <v>37.08000183105469</v>
+        <v>3.769999980926514</v>
       </c>
       <c r="F42">
-        <v>41.93999862670898</v>
+        <v>4.960000038146973</v>
       </c>
       <c r="G42">
-        <v>36</v>
+        <v>3.660000085830689</v>
       </c>
       <c r="H42">
-        <v>380162985</v>
+        <v>590361084</v>
       </c>
       <c r="I42" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>2786356872</v>
@@ -5504,22 +5411,22 @@
         <v>45808</v>
       </c>
       <c r="D43">
-        <v>40.0099983215332</v>
+        <v>3.930000066757202</v>
       </c>
       <c r="E43">
-        <v>42.97000122070312</v>
+        <v>4.579999923706055</v>
       </c>
       <c r="F43">
-        <v>44.09999847412109</v>
+        <v>5.320000171661377</v>
       </c>
       <c r="G43">
-        <v>35.92699813842773</v>
+        <v>3.869999885559082</v>
       </c>
       <c r="H43">
-        <v>323054568</v>
+        <v>590361084</v>
       </c>
       <c r="I43" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>2361085951</v>
